--- a/experiment/output/results/OfficeHome/RSC/DG/0.xlsx
+++ b/experiment/output/results/OfficeHome/RSC/DG/0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,64 +507,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250217_15-25-14_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>63.079</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62.152</v>
-      </c>
-      <c r="F3" t="n">
-        <v>63.852</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250217_17-27-59_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
